--- a/data/trans_camb/P32B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P32B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 8,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 2,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 6,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 6,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 4,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>212,73%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-11,38%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,41%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 2,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>119,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>103,25%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-42,22%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,55; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 4,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 0,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 4,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 3,38</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>263,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>233,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,08%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 747,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,67; 1104,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 844,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,94; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; 489,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 625,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,07; 733,63</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 2,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 2,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>228,06%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,52%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>241,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,28%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 1308,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,93; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 1550,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,08; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 3,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 0,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 0,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 2,13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>476,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>260,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,44%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,57%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,69%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,6; 2157,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 1150,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; 1423,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,63; 77,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,24; 190,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,33; 61,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,11; 412,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 303,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 276,17</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 3,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 2,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,57</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>250,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,89%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,44%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,96; 595,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,35; 435,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,94; 402,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 105,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 180,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 284,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,84; 276,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,33; 213,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 232,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,27 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,61</t>
+          <t>-0,34; 2,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,63</t>
+          <t>-0,92; 2,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,03</t>
+          <t>-1,68; 0,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,14</t>
+          <t>-0,31; 1,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,89</t>
+          <t>-0,52; 1,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,78</t>
+          <t>-0,99; 0,82</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>212,73%</t>
+          <t>141,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,27 +758,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>204,5%</t>
+          <t>142,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>10,56%</t>
         </is>
       </c>
     </row>
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-54,0; 1174,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-82,45; 910,73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,11; 1157,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,5; 873,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,68</t>
+          <t>0,04; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,54</t>
+          <t>0,76; 4,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,54</t>
+          <t>0,29; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>-1,88; 0,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>-0,2; 5,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,84</t>
+          <t>-0,19; 2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,07</t>
+          <t>0,3; 2,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,93</t>
+          <t>0,47; 3,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>119,06%</t>
+          <t>152,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>103,25%</t>
+          <t>263,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-42,22%</t>
+          <t>216,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>234,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>120,4%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>132,56%</t>
+          <t>163,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>222,14%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-15,06; 747,42</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33,67; 1104,69</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 884,37</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,43; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-30,61; 489,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,55; —</t>
+          <t>13,39; 625,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,76; 766,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,01</t>
+          <t>0,25; 3,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,08</t>
+          <t>-1,17; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,04</t>
+          <t>-1,3; 1,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,02</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,94</t>
+          <t>0,0; 3,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,11</t>
+          <t>0,32; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,62</t>
+          <t>-0,88; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,38</t>
+          <t>-0,8; 1,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>152,15%</t>
+          <t>228,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>263,16%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>211,34%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>233,15%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>241,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>163,78%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>218,08%</t>
+          <t>60,66%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 747,42</t>
+          <t>-12,95; 1308,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,67; 1104,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 844,26</t>
+          <t>-94,35; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,94; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 489,33</t>
+          <t>-5,38; 1550,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,39; 625,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 733,63</t>
+          <t>-77,28; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,97</t>
+          <t>1,79; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,48</t>
+          <t>0,29; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,33</t>
+          <t>0,42; 4,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>-3,62; 0,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,0</t>
+          <t>-3,67; 0,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,86</t>
+          <t>0,45; 3,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,93</t>
+          <t>-0,21; 2,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,21</t>
+          <t>-0,3; 2,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>228,06%</t>
+          <t>476,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>230,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>298,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-51,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-55,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>241,49%</t>
+          <t>133,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>69,57%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 1308,75</t>
+          <t>56,6; 2157,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 1150,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-93,93; —</t>
+          <t>-1,41; 1570,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,63; 77,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,24; 190,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,41; 51,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1550,39</t>
+          <t>16,11; 412,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 303,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; —</t>
+          <t>-22,64; 321,27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,98</t>
+          <t>1,21; 3,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,27</t>
+          <t>0,59; 2,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,85</t>
+          <t>0,36; 2,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,57</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,91</t>
+          <t>-0,9; 0,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,33</t>
+          <t>-0,78; 1,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,25</t>
+          <t>0,54; 1,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,2</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,13</t>
+          <t>0,17; 1,52</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>476,2%</t>
+          <t>250,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>230,23%</t>
+          <t>158,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>260,43%</t>
+          <t>140,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-51,44%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-54,57%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>133,45%</t>
+          <t>138,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>92,07%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>56,6; 2157,29</t>
+          <t>101,96; 595,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 1150,98</t>
+          <t>50,35; 435,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1423,85</t>
+          <t>19,43; 420,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-91,63; 77,22</t>
+          <t>-79,42; 105,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,24; 190,5</t>
+          <t>-59,05; 180,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,33; 61,04</t>
+          <t>-50,07; 238,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,11; 412,56</t>
+          <t>38,84; 276,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 303,55</t>
+          <t>20,33; 213,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 276,17</t>
+          <t>12,34; 230,81</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 3,07</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 2,14</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 2,05</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 0,43</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 0,86</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 1,72</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 1,89</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 1,4</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 1,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>250,74%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>158,4%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>130,68%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-34,13%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>44,12%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>138,89%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>92,89%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>95,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>101,96; 595,01</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>50,35; 435,98</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>18,94; 402,1</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-79,42; 105,04</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-59,05; 180,05</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-38,51; 284,79</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>38,84; 276,78</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>20,33; 213,81</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>14,49; 232,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P32B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Habitat-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,73</t>
+          <t>-0,51; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,06</t>
+          <t>-0,96; 2,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,78</t>
+          <t>-1,9; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,99</t>
+          <t>-0,25; 1,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,63</t>
+          <t>-0,44; 1,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,82</t>
+          <t>-0,97; 0,83</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 1174,06</t>
+          <t>-49,75; 1167,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,45; 910,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 1157,97</t>
+          <t>-56,31; 1080,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 873,38</t>
+          <t>-65,31; 1251,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,01</t>
+          <t>-0,01; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,08</t>
+          <t>0,66; 4,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,34</t>
+          <t>0,29; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,02</t>
+          <t>-1,65; 1,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,91</t>
+          <t>-1,75; 1,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,02</t>
+          <t>-0,22; 4,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,11</t>
+          <t>-0,2; 1,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,62</t>
+          <t>0,32; 2,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,66</t>
+          <t>0,56; 3,61</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 747,42</t>
+          <t>-22,55; 849,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 1104,69</t>
+          <t>26,32; 1455,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 884,37</t>
+          <t>-0,15; 1252,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,43; —</t>
+          <t>-64,99; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 489,33</t>
+          <t>-22,0; 472,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 625,9</t>
+          <t>8,48; 651,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 766,5</t>
+          <t>27,15; 766,77</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,97</t>
+          <t>0,28; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,48</t>
+          <t>-1,3; 1,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,28</t>
+          <t>-1,13; 1,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,89</t>
+          <t>0,06; 3,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,86</t>
+          <t>0,22; 2,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 0,93</t>
+          <t>-0,88; 0,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,78</t>
+          <t>-0,73; 1,74</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 1308,75</t>
+          <t>-21,24; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-94,35; —</t>
+          <t>-89,93; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1550,39</t>
+          <t>-16,78; 1380,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,28; —</t>
+          <t>-81,49; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,98</t>
+          <t>1,98; 6,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,27</t>
+          <t>0,29; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,52</t>
+          <t>0,7; 4,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,57</t>
+          <t>-3,38; 0,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,91</t>
+          <t>-2,41; 2,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,28</t>
+          <t>-3,5; 0,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,25</t>
+          <t>0,4; 3,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,2</t>
+          <t>-0,23; 2,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,49</t>
+          <t>-0,4; 2,4</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>56,6; 2157,29</t>
+          <t>105,27; 2657,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 1150,98</t>
+          <t>-15,45; 1005,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1570,46</t>
+          <t>-16,49; 1404,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-91,63; 77,22</t>
+          <t>-89,67; 99,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,24; 190,5</t>
+          <t>-69,46; 206,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,41; 51,13</t>
+          <t>-87,99; 77,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,11; 412,56</t>
+          <t>5,83; 358,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 303,55</t>
+          <t>-18,06; 272,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 321,27</t>
+          <t>-32,56; 283,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,07</t>
+          <t>1,13; 2,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,14</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,18</t>
+          <t>0,36; 2,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,34; 0,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,86</t>
+          <t>-0,98; 0,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,42</t>
+          <t>-0,8; 1,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,89</t>
+          <t>0,63; 1,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>0,27; 1,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,52</t>
+          <t>0,11; 1,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>101,96; 595,01</t>
+          <t>91,38; 537,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50,35; 435,98</t>
+          <t>40,23; 377,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,43; 420,38</t>
+          <t>21,08; 381,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 105,04</t>
+          <t>-81,27; 79,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 180,05</t>
+          <t>-63,65; 154,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 238,79</t>
+          <t>-50,68; 231,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>38,84; 276,78</t>
+          <t>46,47; 284,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,33; 213,81</t>
+          <t>17,34; 215,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,34; 230,81</t>
+          <t>5,11; 233,72</t>
         </is>
       </c>
     </row>
